--- a/main/traitement/nutriments/sodium.xlsx
+++ b/main/traitement/nutriments/sodium.xlsx
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6.65</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="31">
